--- a/src/main/resources/db.xlsx
+++ b/src/main/resources/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PersonDetails" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="210">
+  <si>
+    <t>_id</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -32,9 +35,6 @@
     <t>其他</t>
   </si>
   <si>
-    <t>_id</t>
-  </si>
-  <si>
     <t>公司</t>
   </si>
   <si>
@@ -44,9 +44,6 @@
     <t>微信号：wxid_fw4vetzzorsb21,另：夏琪：15927172454</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>优信</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t/>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>好租宝</t>
   </si>
   <si>
@@ -74,39 +68,21 @@
     <t>420529198711253042</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>悦然装饰</t>
   </si>
   <si>
     <t>未知1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>未知2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>未知3</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>未知</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>小区名称</t>
   </si>
   <si>
@@ -140,30 +116,15 @@
     <t>9-605</t>
   </si>
   <si>
-    <t>90.5</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
     <t>9-2209</t>
   </si>
   <si>
-    <t>111.09</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -173,66 +134,36 @@
     <t>4-3-303</t>
   </si>
   <si>
-    <t>80.0</t>
-  </si>
-  <si>
     <t>6653309079</t>
   </si>
   <si>
     <t>0660056668</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
     <t>7-514</t>
   </si>
   <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
     <t>7-3004</t>
   </si>
   <si>
-    <t>73.37</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
     <t>7-2513</t>
   </si>
   <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
     <t>7-2315</t>
   </si>
   <si>
-    <t>47.78</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -242,39 +173,21 @@
     <t>7-1814</t>
   </si>
   <si>
-    <t>50.0</t>
-  </si>
-  <si>
     <t>6821013377</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>7-1623</t>
   </si>
   <si>
-    <t>49.13</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>6-410</t>
   </si>
   <si>
-    <t>105.38</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -284,18 +197,9 @@
     <t>T30-6</t>
   </si>
   <si>
-    <t>133.29</t>
-  </si>
-  <si>
     <t>6837400857</t>
   </si>
   <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -305,49 +209,28 @@
     <t>7-1-801</t>
   </si>
   <si>
-    <t>134.37</t>
-  </si>
-  <si>
     <t>0904474186</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>4-3-602</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>20-1302</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>6-2019</t>
-  </si>
-  <si>
-    <t>48.79</t>
-  </si>
-  <si>
-    <t>64</t>
   </si>
   <si>
     <t>金额</t>
@@ -772,8 +655,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -811,15 +694,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,9 +724,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,6 +741,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -866,13 +757,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,14 +787,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -935,7 +811,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,25 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,13 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,37 +924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,13 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,37 +984,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,6 +1056,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1187,17 +1085,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,8 +1099,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,6 +1110,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,37 +1144,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,10 +1160,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,10 +1172,10 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1307,19 +1190,19 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,94 +1211,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,8 +1634,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1778,115 +1661,115 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="C7">
+        <v>1234567</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>1234567</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1901,412 +1784,412 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="56.25" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
+        <v>90.5</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
+      <c r="G2" s="3">
+        <v>1.2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="I2" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="3">
+        <v>111.09</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
+      <c r="G3" s="3">
+        <v>1.2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="I3" s="3">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="3">
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="I4" s="3">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="3">
+        <v>35.9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
+      <c r="G5" s="3">
+        <v>1.2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="I5" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="3">
+        <v>73.37</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
+      <c r="G6" s="3">
+        <v>1.2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="I6" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="3">
+        <v>35.8</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
+      <c r="G7" s="3">
+        <v>1.2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="I7" s="3">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="3">
+        <v>47.78</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="I8" s="3">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="I9" s="3">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3">
+        <v>49.13</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
+      <c r="G10" s="3">
+        <v>1.2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="I10" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="3">
+        <v>105.38</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
+      <c r="G11" s="3">
+        <v>1.2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>84</v>
+        <v>32</v>
+      </c>
+      <c r="I11" s="3">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="D12" s="3">
+        <v>133.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3.98</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="I12" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="3">
+        <v>134.37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>99</v>
+        <v>64</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="D14" s="3">
+        <v>80</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
+      <c r="G14" s="3">
+        <v>1.2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>102</v>
+        <v>32</v>
+      </c>
+      <c r="I14" s="3">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="D15" s="3">
+        <v>80</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
+      <c r="G15" s="3">
+        <v>1.2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>105</v>
+        <v>32</v>
+      </c>
+      <c r="I15" s="3">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>108</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="3">
+        <v>48.79</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>41</v>
+      <c r="G16" s="3">
+        <v>1.2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+      <c r="I16" s="3">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2321,32 +2204,32 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="37.5" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2357,10 +2240,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E2" s="3">
         <v>12</v>
@@ -2378,10 +2261,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3">
         <v>12</v>
@@ -2399,10 +2282,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3">
         <v>12</v>
@@ -2420,10 +2303,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3">
         <v>12</v>
@@ -2441,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -2462,10 +2345,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3">
         <v>12</v>
@@ -2483,10 +2366,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
         <v>12</v>
@@ -2504,10 +2387,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3">
         <v>12</v>
@@ -2525,10 +2408,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
@@ -2546,10 +2429,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3">
         <v>12</v>
@@ -2567,10 +2450,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
@@ -2588,10 +2471,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3">
         <v>24</v>
@@ -2609,10 +2492,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
@@ -2630,16 +2513,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3">
         <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
@@ -2653,10 +2536,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E16" s="3">
         <v>12</v>
@@ -2674,10 +2557,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E17" s="3">
         <v>24</v>
@@ -2695,10 +2578,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E18" s="3">
         <v>12</v>
@@ -2716,10 +2599,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3">
         <v>24</v>
@@ -2737,10 +2620,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E20" s="3">
         <v>12</v>
@@ -2758,10 +2641,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3">
         <v>24</v>
@@ -2779,10 +2662,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3">
         <v>12</v>
@@ -2800,16 +2683,16 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E23" s="3">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2">
         <v>22</v>
@@ -2823,10 +2706,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3">
         <v>12</v>
@@ -2844,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E25" s="3">
         <v>12</v>
@@ -2865,10 +2748,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3">
         <v>12</v>
@@ -2886,10 +2769,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E27" s="3">
         <v>12</v>
@@ -2907,16 +2790,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E28" s="3">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2">
         <v>27</v>
@@ -2930,10 +2813,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E29" s="3">
         <v>12</v>
@@ -2951,16 +2834,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E30" s="3">
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="G30" s="2">
         <v>29</v>
@@ -2974,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E31" s="3">
         <v>12</v>
@@ -2995,10 +2878,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3">
         <v>12</v>
@@ -3016,10 +2899,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E33" s="3">
         <v>6</v>
@@ -3037,10 +2920,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3">
         <v>12</v>
@@ -3058,10 +2941,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
@@ -3079,10 +2962,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="E36" s="3">
         <v>12</v>
@@ -3100,10 +2983,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E37" s="3">
         <v>12</v>
@@ -3132,16 +3015,16 @@
   <sheetData>
     <row r="1" ht="37.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3149,13 +3032,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3163,13 +3046,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3183,60 +3066,60 @@
   <sheetPr/>
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="56.25" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3244,13 +3127,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3259,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J2" s="2">
         <v>15</v>
@@ -3280,7 +3163,7 @@
         <v>1550</v>
       </c>
       <c r="N2" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O2" s="2">
         <v>39</v>
@@ -3291,13 +3174,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3306,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J3" s="2">
         <v>15</v>
@@ -3327,7 +3210,7 @@
         <v>1550</v>
       </c>
       <c r="N3" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O3" s="2">
         <v>39</v>
@@ -3338,13 +3221,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2">
         <v>9000</v>
@@ -3353,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="J4" s="2">
         <v>12</v>
@@ -3374,7 +3257,7 @@
         <v>3000</v>
       </c>
       <c r="N4" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O4" s="2">
         <v>120</v>
@@ -3385,13 +3268,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2">
         <v>8400</v>
@@ -3400,13 +3283,13 @@
         <v>1599.7</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="J5" s="2">
         <v>12</v>
@@ -3421,7 +3304,7 @@
         <v>2800</v>
       </c>
       <c r="N5" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O5" s="2">
         <v>24</v>
@@ -3432,13 +3315,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2">
         <v>6900</v>
@@ -3447,13 +3330,13 @@
         <v>1303.2</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="J6" s="2">
         <v>12</v>
@@ -3468,7 +3351,7 @@
         <v>2300</v>
       </c>
       <c r="N6" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O6" s="2">
         <v>24</v>
@@ -3479,13 +3362,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2">
         <v>6300</v>
@@ -3494,13 +3377,13 @@
         <v>1056.53</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="J7" s="2">
         <v>12</v>
@@ -3515,7 +3398,7 @@
         <v>2100</v>
       </c>
       <c r="N7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O7" s="2">
         <v>24</v>
@@ -3526,13 +3409,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2">
         <v>8400</v>
@@ -3541,13 +3424,13 @@
         <v>1517.47</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="J8" s="2">
         <v>12</v>
@@ -3562,7 +3445,7 @@
         <v>2800</v>
       </c>
       <c r="N8" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O8" s="2">
         <v>24</v>
@@ -3573,13 +3456,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2">
         <v>2200</v>
@@ -3588,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -3609,7 +3492,7 @@
         <v>2200</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -3620,13 +3503,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="E10" s="2">
         <v>4800</v>
@@ -3635,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -3656,7 +3539,7 @@
         <v>1600</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -3667,13 +3550,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2">
         <v>7200</v>
@@ -3682,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -3703,7 +3586,7 @@
         <v>2400</v>
       </c>
       <c r="N11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -3714,13 +3597,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -3729,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J12" s="2">
         <v>15</v>
@@ -3750,7 +3633,7 @@
         <v>1550</v>
       </c>
       <c r="N12" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O12" s="2">
         <v>39</v>
@@ -3761,13 +3644,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -3776,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J13" s="2">
         <v>15</v>
@@ -3797,7 +3680,7 @@
         <v>1550</v>
       </c>
       <c r="N13" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O13" s="2">
         <v>39</v>
@@ -3808,13 +3691,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3823,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J14" s="2">
         <v>15</v>
@@ -3844,7 +3727,7 @@
         <v>1550</v>
       </c>
       <c r="N14" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2">
         <v>39</v>
@@ -3855,13 +3738,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2">
         <v>9000</v>
@@ -3870,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="J15" s="2">
         <v>12</v>
@@ -3891,7 +3774,7 @@
         <v>3000</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O15" s="2">
         <v>120</v>
@@ -3902,13 +3785,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="E16" s="2">
         <v>4800</v>
@@ -3917,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="J16" s="2">
         <v>12</v>
@@ -3938,7 +3821,7 @@
         <v>1600</v>
       </c>
       <c r="N16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O16" s="2">
         <v>1</v>
@@ -3949,13 +3832,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="E17" s="2">
         <v>6000</v>
@@ -3964,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3985,7 +3868,7 @@
         <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" s="2">
         <v>1</v>
@@ -3996,13 +3879,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2">
         <v>2200</v>
@@ -4011,13 +3894,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -4032,7 +3915,7 @@
         <v>2200</v>
       </c>
       <c r="N18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
@@ -4043,13 +3926,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="E19" s="2">
         <v>7200</v>
@@ -4058,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -4079,7 +3962,7 @@
         <v>2400</v>
       </c>
       <c r="N19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4090,13 +3973,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E20" s="2">
         <v>8400</v>
@@ -4105,13 +3988,13 @@
         <v>399.92</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
@@ -4126,7 +4009,7 @@
         <v>2800</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O20" s="2">
         <v>24</v>
@@ -4137,13 +4020,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2">
         <v>6300</v>
@@ -4152,13 +4035,13 @@
         <v>264.13</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="J21" s="2">
         <v>3</v>
@@ -4173,7 +4056,7 @@
         <v>2100</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O21" s="2">
         <v>24</v>
@@ -4184,13 +4067,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E22" s="2">
         <v>8400</v>
@@ -4199,13 +4082,13 @@
         <v>379.37</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -4220,7 +4103,7 @@
         <v>2800</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O22" s="2">
         <v>24</v>
@@ -4231,13 +4114,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E23" s="2">
         <v>6900</v>
@@ -4246,13 +4129,13 @@
         <v>325.8</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="J23" s="2">
         <v>3</v>
@@ -4267,7 +4150,7 @@
         <v>2300</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O23" s="2">
         <v>24</v>
@@ -4278,13 +4161,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E24" s="2">
         <v>9000</v>
@@ -4293,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="J24" s="2">
         <v>12</v>
@@ -4314,7 +4197,7 @@
         <v>3000</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O24" s="2">
         <v>120</v>
@@ -4325,13 +4208,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="E25" s="2">
         <v>6600</v>
@@ -4340,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4361,7 +4244,7 @@
         <v>2200</v>
       </c>
       <c r="N25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O25" s="2">
         <v>1</v>
@@ -4372,13 +4255,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E26" s="2">
         <v>9000</v>
@@ -4387,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="J26" s="2">
         <v>12</v>
@@ -4408,7 +4291,7 @@
         <v>3000</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O26" s="2">
         <v>120</v>
@@ -4419,13 +4302,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="E27" s="2">
         <v>1600</v>
@@ -4434,13 +4317,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="J27" s="2">
         <v>12</v>
@@ -4455,7 +4338,7 @@
         <v>1600</v>
       </c>
       <c r="N27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>
@@ -4466,13 +4349,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2">
         <v>7200</v>
@@ -4481,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -4502,7 +4385,7 @@
         <v>2400</v>
       </c>
       <c r="N28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -4513,13 +4396,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="E29" s="2">
         <v>6000</v>
@@ -4528,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -4549,7 +4432,7 @@
         <v>2000</v>
       </c>
       <c r="N29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29" s="2">
         <v>1</v>
@@ -4560,13 +4443,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -4575,13 +4458,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -4596,7 +4479,7 @@
         <v>1700</v>
       </c>
       <c r="N30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O30" s="2">
         <v>12</v>
@@ -4607,13 +4490,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="E31" s="2">
         <v>8400</v>
@@ -4622,13 +4505,13 @@
         <v>399.92</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J31" s="2">
         <v>3</v>
@@ -4643,7 +4526,7 @@
         <v>2800</v>
       </c>
       <c r="N31" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O31" s="2">
         <v>24</v>
@@ -4654,13 +4537,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="E32" s="2">
         <v>6300</v>
@@ -4669,13 +4552,13 @@
         <v>264.13</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J32" s="2">
         <v>3</v>
@@ -4690,7 +4573,7 @@
         <v>2100</v>
       </c>
       <c r="N32" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O32" s="2">
         <v>24</v>
@@ -4701,13 +4584,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="E33" s="2">
         <v>8400</v>
@@ -4716,13 +4599,13 @@
         <v>379.37</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J33" s="2">
         <v>3</v>
@@ -4737,7 +4620,7 @@
         <v>2800</v>
       </c>
       <c r="N33" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O33" s="2">
         <v>24</v>
@@ -4748,13 +4631,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="E34" s="2">
         <v>6900</v>
@@ -4763,13 +4646,13 @@
         <v>325.8</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
@@ -4784,7 +4667,7 @@
         <v>2300</v>
       </c>
       <c r="N34" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O34" s="2">
         <v>24</v>
@@ -4795,13 +4678,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="E35" s="2">
         <v>6600</v>
@@ -4810,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -4831,7 +4714,7 @@
         <v>2200</v>
       </c>
       <c r="N35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O35" s="2">
         <v>1</v>
@@ -4842,13 +4725,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E36" s="2">
         <v>9000</v>
@@ -4857,13 +4740,13 @@
         <v>6365.93</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="J36" s="2">
         <v>12</v>
@@ -4878,7 +4761,7 @@
         <v>3000</v>
       </c>
       <c r="N36" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O36" s="2">
         <v>120</v>
@@ -4889,13 +4772,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="E37" s="2">
         <v>7200</v>
@@ -4904,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -4925,7 +4808,7 @@
         <v>2400</v>
       </c>
       <c r="N37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -4936,13 +4819,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="E38" s="2">
         <v>3400</v>
@@ -4951,13 +4834,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -4972,7 +4855,7 @@
         <v>1700</v>
       </c>
       <c r="N38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O38" s="2">
         <v>12</v>
@@ -4983,13 +4866,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="E39" s="2">
         <v>6000</v>
@@ -4998,13 +4881,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -5019,7 +4902,7 @@
         <v>2000</v>
       </c>
       <c r="N39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O39" s="2">
         <v>1</v>
@@ -5030,13 +4913,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="E40" s="2">
         <v>9000</v>
@@ -5045,13 +4928,13 @@
         <v>6365.93</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="J40" s="2">
         <v>12</v>
@@ -5066,7 +4949,7 @@
         <v>3000</v>
       </c>
       <c r="N40" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O40" s="2">
         <v>120</v>
@@ -5077,13 +4960,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="E41" s="2">
         <v>6600</v>
@@ -5092,13 +4975,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -5113,7 +4996,7 @@
         <v>2200</v>
       </c>
       <c r="N41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O41" s="2">
         <v>1</v>
@@ -5124,13 +5007,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="E42" s="2">
         <v>6900</v>
@@ -5139,13 +5022,13 @@
         <v>325.8</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I42" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J42" s="2">
         <v>3</v>
@@ -5160,7 +5043,7 @@
         <v>2300</v>
       </c>
       <c r="N42" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O42" s="2">
         <v>24</v>
@@ -5171,13 +5054,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C43" s="2">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2">
         <v>8400</v>
@@ -5186,13 +5069,13 @@
         <v>379.37</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J43" s="2">
         <v>3</v>
@@ -5207,7 +5090,7 @@
         <v>2800</v>
       </c>
       <c r="N43" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O43" s="2">
         <v>24</v>
@@ -5218,13 +5101,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="E44" s="2">
         <v>6300</v>
@@ -5233,13 +5116,13 @@
         <v>264.13</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J44" s="2">
         <v>3</v>
@@ -5254,7 +5137,7 @@
         <v>2100</v>
       </c>
       <c r="N44" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O44" s="2">
         <v>24</v>
@@ -5265,13 +5148,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="E45" s="2">
         <v>8400</v>
@@ -5280,13 +5163,13 @@
         <v>399.92</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J45" s="2">
         <v>3</v>
@@ -5301,7 +5184,7 @@
         <v>2800</v>
       </c>
       <c r="N45" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O45" s="2">
         <v>24</v>
@@ -5312,13 +5195,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E46" s="2">
         <v>4650</v>
@@ -5327,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J46" s="2">
         <v>15</v>
@@ -5348,7 +5231,7 @@
         <v>1550</v>
       </c>
       <c r="N46" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O46" s="2">
         <v>39</v>
@@ -5359,13 +5242,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E47" s="2">
         <v>4650</v>
@@ -5374,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J47" s="2">
         <v>15</v>
@@ -5395,7 +5278,7 @@
         <v>1550</v>
       </c>
       <c r="N47" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O47" s="2">
         <v>39</v>
@@ -5406,13 +5289,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E48" s="2">
         <v>4650</v>
@@ -5421,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J48" s="2">
         <v>15</v>
@@ -5442,7 +5325,7 @@
         <v>1550</v>
       </c>
       <c r="N48" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O48" s="2">
         <v>39</v>
@@ -5453,13 +5336,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E49" s="2">
         <v>4650</v>
@@ -5468,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J49" s="2">
         <v>15</v>
@@ -5489,7 +5372,7 @@
         <v>1550</v>
       </c>
       <c r="N49" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O49" s="2">
         <v>39</v>
@@ -5500,13 +5383,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C50" s="2">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E50" s="2">
         <v>4650</v>
@@ -5515,13 +5398,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J50" s="2">
         <v>15</v>
@@ -5536,7 +5419,7 @@
         <v>1550</v>
       </c>
       <c r="N50" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O50" s="2">
         <v>39</v>
@@ -5547,13 +5430,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="E51" s="2">
         <v>3400</v>
@@ -5562,13 +5445,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -5583,7 +5466,7 @@
         <v>1700</v>
       </c>
       <c r="N51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O51" s="2">
         <v>12</v>
@@ -5594,13 +5477,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="E52" s="2">
         <v>9000</v>
@@ -5609,13 +5492,13 @@
         <v>6365.93</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I52" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="J52" s="2">
         <v>12</v>
@@ -5630,7 +5513,7 @@
         <v>3000</v>
       </c>
       <c r="N52" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O52" s="2">
         <v>120</v>
@@ -5641,13 +5524,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C53" s="2">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="E53" s="2">
         <v>7200</v>
@@ -5656,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H53" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -5677,7 +5560,7 @@
         <v>2400</v>
       </c>
       <c r="N53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O53" s="2">
         <v>0</v>
@@ -5688,13 +5571,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="E54" s="2">
         <v>8400</v>
@@ -5703,13 +5586,13 @@
         <v>379.37</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I54" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J54" s="2">
         <v>3</v>
@@ -5724,7 +5607,7 @@
         <v>2800</v>
       </c>
       <c r="N54" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O54" s="2">
         <v>24</v>
@@ -5735,13 +5618,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C55" s="2">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="E55" s="2">
         <v>6300</v>
@@ -5750,13 +5633,13 @@
         <v>264.13</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J55" s="2">
         <v>3</v>
@@ -5771,7 +5654,7 @@
         <v>2100</v>
       </c>
       <c r="N55" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O55" s="2">
         <v>24</v>
@@ -5782,13 +5665,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C56" s="2">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="E56" s="2">
         <v>8400</v>
@@ -5797,13 +5680,13 @@
         <v>399.92</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J56" s="2">
         <v>3</v>
@@ -5818,7 +5701,7 @@
         <v>2800</v>
       </c>
       <c r="N56" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O56" s="2">
         <v>24</v>
@@ -5829,13 +5712,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C57" s="2">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="E57" s="2">
         <v>6000</v>
@@ -5844,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -5865,7 +5748,7 @@
         <v>2000</v>
       </c>
       <c r="N57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O57" s="2">
         <v>1</v>
@@ -5876,13 +5759,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C58" s="2">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="E58" s="2">
         <v>6900</v>
@@ -5891,13 +5774,13 @@
         <v>325.8</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J58" s="2">
         <v>3</v>
@@ -5912,7 +5795,7 @@
         <v>2300</v>
       </c>
       <c r="N58" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O58" s="2">
         <v>24</v>
@@ -5923,13 +5806,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="E59" s="2">
         <v>3400</v>
@@ -5938,13 +5821,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -5959,7 +5842,7 @@
         <v>1700</v>
       </c>
       <c r="N59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O59" s="2">
         <v>12</v>
@@ -5970,13 +5853,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E60" s="2">
         <v>6600</v>
@@ -5985,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -6006,7 +5889,7 @@
         <v>2200</v>
       </c>
       <c r="N60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O60" s="2">
         <v>1</v>
@@ -6017,13 +5900,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C61" s="2">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="E61" s="2">
         <v>4650</v>
@@ -6032,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J61" s="2">
         <v>15</v>
@@ -6053,7 +5936,7 @@
         <v>1550</v>
       </c>
       <c r="N61" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O61" s="2">
         <v>39</v>
@@ -6064,13 +5947,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="E62" s="2">
         <v>4650</v>
@@ -6079,13 +5962,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J62" s="2">
         <v>15</v>
@@ -6100,7 +5983,7 @@
         <v>1550</v>
       </c>
       <c r="N62" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O62" s="2">
         <v>39</v>
@@ -6111,13 +5994,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C63" s="2">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="E63" s="2">
         <v>4650</v>
@@ -6126,13 +6009,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H63" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J63" s="2">
         <v>15</v>
@@ -6147,7 +6030,7 @@
         <v>1550</v>
       </c>
       <c r="N63" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O63" s="2">
         <v>39</v>
@@ -6158,13 +6041,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C64" s="2">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="E64" s="2">
         <v>4650</v>
@@ -6173,13 +6056,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I64" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J64" s="2">
         <v>15</v>
@@ -6194,7 +6077,7 @@
         <v>1550</v>
       </c>
       <c r="N64" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O64" s="2">
         <v>39</v>
@@ -6205,13 +6088,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="E65" s="2">
         <v>4650</v>
@@ -6220,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="J65" s="2">
         <v>15</v>
@@ -6241,7 +6124,7 @@
         <v>1550</v>
       </c>
       <c r="N65" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O65" s="2">
         <v>39</v>
@@ -6252,13 +6135,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C66" s="2">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="E66" s="2">
         <v>9000</v>
@@ -6267,13 +6150,13 @@
         <v>6365.93</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="J66" s="2">
         <v>12</v>
@@ -6288,13 +6171,13 @@
         <v>3000</v>
       </c>
       <c r="N66" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="O66" s="2">
         <v>120</v>
       </c>
       <c r="P66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -6302,13 +6185,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="E67" s="2">
         <v>7200</v>
@@ -6317,13 +6200,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H67" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
@@ -6338,13 +6221,13 @@
         <v>2400</v>
       </c>
       <c r="N67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O67" s="2">
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -6352,13 +6235,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="E68" s="2">
         <v>10800</v>
@@ -6367,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -6388,13 +6271,13 @@
         <v>2700</v>
       </c>
       <c r="N68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O68" s="2">
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -6402,13 +6285,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C69" s="2">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="E69" s="2">
         <v>3400</v>
@@ -6417,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H69" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -6438,13 +6321,13 @@
         <v>1700</v>
       </c>
       <c r="N69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O69" s="2">
         <v>12</v>
       </c>
       <c r="P69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
